--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena League 1996 (PARL).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena League 1996 (PARL).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,168 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Disenchant</t>
+          <t>('Disenchant', ['{1}{W}', 'Instant', 'Destroy target artifact or enchantment.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{W}</t>
+          <t>('Fireball', ['{X}{R}', 'Sorcery', 'This spell costs {1} more to cast for each target beyond the first.', 'Fireball deals X damage divided evenly, rounded down, among any number of targets.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Forest', ['Basic Land — Forest', '({T}: Add {G}.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Destroy target artifact or enchantment.</t>
+          <t>('Island', ['Basic Land — Island', '({T}: Add {U}.)'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fireball</t>
+          <t>('Mountain', ['Basic Land — Mountain', '({T}: Add {R}.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{X}{R}</t>
+          <t>('Plains', ['Basic Land — Plains', '({T}: Add {W}.)'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>This spell costs {1} more to cast for each target beyond the first.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Fireball deals X damage divided evenly, rounded down, among any number of targets.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Basic Land — Forest</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>({T}: Add {G}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Basic Land — Island</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>({T}: Add {U}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Basic Land — Mountain</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>({T}: Add {R}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Basic Land — Plains</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>({T}: Add {W}.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Basic Land — Swamp</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>({T}: Add {B}.)</t>
+          <t>('Swamp', ['Basic Land — Swamp', '({T}: Add {B}.)'])</t>
         </is>
       </c>
     </row>
